--- a/medicine/Mort/Cimetière_de_Villetaneuse/Cimetière_de_Villetaneuse.xlsx
+++ b/medicine/Mort/Cimetière_de_Villetaneuse/Cimetière_de_Villetaneuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villetaneuse</t>
+          <t>Cimetière_de_Villetaneuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière communal de Villetaneuse, est un des deux cimetières de la commune de Villetaneuse en Seine-Saint-Denis, avec le cimetière intercommunal des Joncherolles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villetaneuse</t>
+          <t>Cimetière_de_Villetaneuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière communal ne reçoit plus de nouvelles sépultures[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière communal ne reçoit plus de nouvelles sépultures.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villetaneuse</t>
+          <t>Cimetière_de_Villetaneuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur une surface de 0,6 hectare, le cimetière compte 519 tombes. Le cimetière comporte un carré militaire formé de deux rangées de cinq tombes et d'un monuments aux morts en forme d'obélisque[2]. On y a aussi transféré les restes d'un soldat français inhumé dans un champ[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une surface de 0,6 hectare, le cimetière compte 519 tombes. Le cimetière comporte un carré militaire formé de deux rangées de cinq tombes et d'un monuments aux morts en forme d'obélisque. On y a aussi transféré les restes d'un soldat français inhumé dans un champ.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Villetaneuse</t>
+          <t>Cimetière_de_Villetaneuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
